--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pux\IdeaProjects\FinalProject\src\test\java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pux\IdeaProjects\FinalProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23B7644-1BBF-431B-951A-985B483FDFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB51BDC0-C25E-4A4C-A350-22AB687B4A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{C876C260-5089-4586-838A-D1D183575ACE}"/>
   </bookViews>
@@ -52,10 +52,10 @@
     <t>vladimir@example.com</t>
   </si>
   <si>
-    <t>Nesto Fino</t>
-  </si>
-  <si>
-    <t>Nesto Fino2</t>
+    <t>NestoFino</t>
+  </si>
+  <si>
+    <t>NestoFino2</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
